--- a/data_year/zb/工业/按行业分规模以上工业企业主要经济指标(2000-2002)/流动资产合计.xlsx
+++ b/data_year/zb/工业/按行业分规模以上工业企业主要经济指标(2000-2002)/流动资产合计.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,387 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>1881.51278</v>
-      </c>
-      <c r="C2" t="n">
-        <v>4248.4075</v>
-      </c>
-      <c r="D2" t="n">
-        <v>595.2288600000001</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1.63039</v>
-      </c>
-      <c r="F2" t="n">
-        <v>441.22993</v>
-      </c>
-      <c r="G2" t="n">
-        <v>3487.78373</v>
-      </c>
-      <c r="H2" t="n">
-        <v>601.6238499999999</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1480.84438</v>
-      </c>
-      <c r="J2" t="n">
-        <v>446.40591</v>
-      </c>
-      <c r="K2" t="n">
-        <v>1005.2404</v>
-      </c>
-      <c r="L2" t="n">
-        <v>192.81744</v>
-      </c>
-      <c r="M2" t="n">
-        <v>298.56186</v>
-      </c>
-      <c r="N2" t="n">
-        <v>2688.69212</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1238.99683</v>
-      </c>
-      <c r="P2" t="n">
-        <v>201.53686</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1057.48539</v>
-      </c>
-      <c r="R2" t="n">
-        <v>302.80978</v>
-      </c>
-      <c r="S2" t="n">
-        <v>162.22899</v>
-      </c>
-      <c r="T2" t="n">
-        <v>541.26712</v>
-      </c>
-      <c r="U2" t="n">
-        <v>971.66214</v>
-      </c>
-      <c r="V2" t="n">
-        <v>179.40203</v>
-      </c>
-      <c r="W2" t="n">
-        <v>1407.08276</v>
-      </c>
-      <c r="X2" t="n">
-        <v>4650.03827</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>4832.4572</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>3138.57678</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>577.20659</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>1311.3402</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>889.96971</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>2825.60349</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>357.05719</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>54338.15</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>1058.77737</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>1418.42749</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>2422.99824</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>246.74859</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>765.1734300000001</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>1451.27917</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>1252.28309</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>3303.82583</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>112.44099</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>1905.90138</v>
-      </c>
-      <c r="C3" t="n">
-        <v>4758.97882</v>
-      </c>
-      <c r="D3" t="n">
-        <v>659.35348</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1.71261</v>
-      </c>
-      <c r="F3" t="n">
-        <v>480.17078</v>
-      </c>
-      <c r="G3" t="n">
-        <v>3615.41459</v>
-      </c>
-      <c r="H3" t="n">
-        <v>504.76853</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1723.58666</v>
-      </c>
-      <c r="J3" t="n">
-        <v>495.50296</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1115.42849</v>
-      </c>
-      <c r="L3" t="n">
-        <v>212.82403</v>
-      </c>
-      <c r="M3" t="n">
-        <v>325.39657</v>
-      </c>
-      <c r="N3" t="n">
-        <v>2858.11952</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1389.4503</v>
-      </c>
-      <c r="P3" t="n">
-        <v>199.42359</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1126.38798</v>
-      </c>
-      <c r="R3" t="n">
-        <v>326.42817</v>
-      </c>
-      <c r="S3" t="n">
-        <v>162.79025</v>
-      </c>
-      <c r="T3" t="n">
-        <v>565.32183</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1428.95877</v>
-      </c>
-      <c r="V3" t="n">
-        <v>191.97921</v>
-      </c>
-      <c r="W3" t="n">
-        <v>1509.98685</v>
-      </c>
-      <c r="X3" t="n">
-        <v>4642.66186</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>5330.44559</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>3401.6894</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>618.56233</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>1259.7964</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>878.22124</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>2955.97896</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>389.3065</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>57804.97</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>1076.11115</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>1518.0534</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>2543.4683</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>247.10096</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>809.01588</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>1481.6463</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>1297.48585</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>3404.00275</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>119.4643</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>2152.04582</v>
-      </c>
-      <c r="C4" t="n">
-        <v>5456.14491</v>
-      </c>
-      <c r="D4" t="n">
-        <v>741.97135</v>
-      </c>
-      <c r="E4" t="n">
-        <v>2.27223</v>
-      </c>
-      <c r="F4" t="n">
-        <v>525.01665</v>
-      </c>
-      <c r="G4" t="n">
-        <v>3902.68771</v>
-      </c>
-      <c r="H4" t="n">
-        <v>526.0714</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1883.23795</v>
-      </c>
-      <c r="J4" t="n">
-        <v>531.89223</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1261.96189</v>
-      </c>
-      <c r="L4" t="n">
-        <v>240.26308</v>
-      </c>
-      <c r="M4" t="n">
-        <v>379.90023</v>
-      </c>
-      <c r="N4" t="n">
-        <v>3143.66867</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1454.50972</v>
-      </c>
-      <c r="P4" t="n">
-        <v>199.94365</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1227.83802</v>
-      </c>
-      <c r="R4" t="n">
-        <v>352.08584</v>
-      </c>
-      <c r="S4" t="n">
-        <v>162.2555</v>
-      </c>
-      <c r="T4" t="n">
-        <v>615.0404</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1508.49466</v>
-      </c>
-      <c r="V4" t="n">
-        <v>232.05177</v>
-      </c>
-      <c r="W4" t="n">
-        <v>1694.22218</v>
-      </c>
-      <c r="X4" t="n">
-        <v>4912.73822</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>6197.86023</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>3778.65389</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>714.90324</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>1300.61003</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>872.71903</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>3172.3304</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>430.22972</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>63468.46</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>1179.62105</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>1707.09302</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>2764.79325</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>254.81346</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>951.04399</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>1658.07796</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>1356.23887</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>3602.27572</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>139.16466</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
